--- a/inputs/Assis_Chateaubriand_UVR-1_12-2024.xlsx
+++ b/inputs/Assis_Chateaubriand_UVR-1_12-2024.xlsx
@@ -2587,7 +2587,7 @@
         </is>
       </c>
       <c r="C10" s="68" t="n">
-        <v>537</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" s="34">
@@ -2719,7 +2719,7 @@
         </is>
       </c>
       <c r="C22" s="68" t="n">
-        <v>2980</v>
+        <v>3517</v>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1" s="34">
